--- a/public/excel/1.xlsx
+++ b/public/excel/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.0_aisi_321" sheetId="16" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Окончание дымох.</t>
   </si>
   <si>
-    <t>Элементы</t>
-  </si>
-  <si>
     <t>Труба 0,5м нерж\нерж</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Тройник 87 нерж\нерж</t>
+  </si>
+  <si>
+    <t>elements</t>
   </si>
 </sst>
 </file>
@@ -752,9 +752,7 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView zoomScale="135" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -764,7 +762,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6">
         <v>100</v>
@@ -826,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8">
         <v>495.88</v>
@@ -885,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8">
         <v>251.16000000000003</v>
@@ -944,10 +942,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8">
         <v>187</v>
@@ -1000,13 +998,13 @@
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8">
         <v>449</v>
@@ -1059,13 +1057,13 @@
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8">
         <v>232</v>
@@ -1118,13 +1116,13 @@
     </row>
     <row r="7" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8">
         <v>539</v>
@@ -1177,13 +1175,13 @@
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8">
         <v>655</v>
@@ -1239,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8">
         <v>282</v>
@@ -1298,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8">
         <v>359</v>
@@ -1357,10 +1355,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8">
         <v>208</v>
@@ -1416,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8">
         <v>569</v>
@@ -1479,9 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="167" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1490,78 +1486,78 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9">
         <v>917.69999999999993</v>
@@ -1609,7 +1605,7 @@
         <v>4185.7</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="9">
         <v>1085.8499999999999</v>
@@ -1620,13 +1616,13 @@
     </row>
     <row r="3" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9">
         <v>719.15</v>
@@ -1674,7 +1670,7 @@
         <v>3503.6</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="9">
         <v>808.44999999999993</v>
@@ -1685,13 +1681,13 @@
     </row>
     <row r="4" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9">
         <v>559.54999999999995</v>
@@ -1739,7 +1735,7 @@
         <v>2531.75</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T4" s="9">
         <v>647.9</v>
@@ -1750,13 +1746,13 @@
     </row>
     <row r="5" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9">
         <v>430.34999999999997</v>
@@ -1804,7 +1800,7 @@
         <v>2080.5</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T5" s="9">
         <v>474.04999999999995</v>
@@ -1815,13 +1811,13 @@
     </row>
     <row r="6" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9">
         <v>371</v>
@@ -1869,7 +1865,7 @@
         <v>1671</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T6" s="9">
         <v>422</v>
@@ -1880,13 +1876,13 @@
     </row>
     <row r="7" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9">
         <v>317</v>
@@ -1934,7 +1930,7 @@
         <v>1389</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T7" s="9">
         <v>336</v>
@@ -1945,13 +1941,13 @@
     </row>
     <row r="8" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9">
         <v>1044</v>
@@ -1999,7 +1995,7 @@
         <v>7036.4966141732284</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T8" s="9">
         <v>1209.5428346456692</v>
@@ -2010,13 +2006,13 @@
     </row>
     <row r="9" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9">
         <v>901</v>
@@ -2064,7 +2060,7 @@
         <v>5935.4966141732284</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T9" s="9">
         <v>1023.5428346456692</v>
@@ -2075,13 +2071,13 @@
     </row>
     <row r="10" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9">
         <v>1272</v>
@@ -2129,7 +2125,7 @@
         <v>9950.883622047244</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T10" s="9">
         <v>1493.0822047244094</v>
@@ -2140,13 +2136,13 @@
     </row>
     <row r="11" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9">
         <v>1102</v>
@@ -2194,7 +2190,7 @@
         <v>8471.883622047244</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T11" s="9">
         <v>1276.0822047244094</v>
@@ -2205,13 +2201,13 @@
     </row>
     <row r="12" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9">
         <v>992</v>
@@ -2259,7 +2255,7 @@
         <v>5156.4966141732284</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T12" s="9">
         <v>1054.8</v>
@@ -2270,13 +2266,13 @@
     </row>
     <row r="13" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9">
         <v>851</v>
@@ -2324,7 +2320,7 @@
         <v>4271.4966141732284</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T13" s="9">
         <v>894.8</v>
@@ -2335,13 +2331,13 @@
     </row>
     <row r="14" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9">
         <v>519</v>
@@ -2389,7 +2385,7 @@
         <v>2662</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T14" s="9">
         <v>575</v>
@@ -2400,13 +2396,13 @@
     </row>
     <row r="15" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="9">
         <v>444</v>
@@ -2454,7 +2450,7 @@
         <v>2267</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T15" s="9">
         <v>481</v>
@@ -2465,13 +2461,13 @@
     </row>
     <row r="16" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="9">
         <v>829</v>
@@ -2519,7 +2515,7 @@
         <v>4908</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16" s="9">
         <v>971</v>
@@ -2530,13 +2526,13 @@
     </row>
     <row r="17" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="9">
         <v>686</v>
@@ -2584,7 +2580,7 @@
         <v>3927</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T17" s="9">
         <v>793</v>
@@ -2595,13 +2591,13 @@
     </row>
     <row r="18" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9">
         <v>361</v>
@@ -2649,7 +2645,7 @@
         <v>1418</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="9">
         <v>423</v>
@@ -2660,13 +2656,13 @@
     </row>
     <row r="19" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="9">
         <v>405</v>
@@ -2714,7 +2710,7 @@
         <v>2417</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T19" s="9">
         <v>468</v>
@@ -2725,13 +2721,13 @@
     </row>
     <row r="20" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="9">
         <v>387</v>
@@ -2779,7 +2775,7 @@
         <v>2230</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T20" s="9">
         <v>442</v>
@@ -2790,13 +2786,13 @@
     </row>
     <row r="21" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="9">
         <v>378</v>
@@ -2835,16 +2831,16 @@
         <v>1063</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T21" s="9">
         <v>399</v>

--- a/public/excel/1.xlsx
+++ b/public/excel/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="1.0_aisi_321" sheetId="16" r:id="rId1"/>
@@ -33,12 +33,6 @@
     <t>Труба 1м</t>
   </si>
   <si>
-    <t>Труба 0,5м</t>
-  </si>
-  <si>
-    <t>Труба 0,3м</t>
-  </si>
-  <si>
     <t>Грибок</t>
   </si>
   <si>
@@ -51,12 +45,6 @@
     <t>Окончание дымох.</t>
   </si>
   <si>
-    <t>Труба 0,5м нерж\нерж</t>
-  </si>
-  <si>
-    <t>Труба 0,25м нерж\нерж</t>
-  </si>
-  <si>
     <t>Ревизия нерж\нерж</t>
   </si>
   <si>
@@ -144,49 +132,61 @@
     <t>Тройник 45</t>
   </si>
   <si>
+    <t>Труба 1м нерж\оц</t>
+  </si>
+  <si>
+    <t>Ревизия нерж\оц</t>
+  </si>
+  <si>
+    <t>Конус термо нерж\оц</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
     <t>Труба 1м нерж\нерж</t>
   </si>
   <si>
-    <t>Труба 1м нерж\оц</t>
-  </si>
-  <si>
-    <t>Труба 0,5м нерж\оц</t>
-  </si>
-  <si>
-    <t>Труба 0,25м нерж\оц</t>
-  </si>
-  <si>
-    <t>Ревизия нерж\оц</t>
-  </si>
-  <si>
-    <t>Конус термо нерж\оц</t>
-  </si>
-  <si>
-    <t>Колено 45 нерж\оц</t>
-  </si>
-  <si>
-    <t>Колено 45 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Колено 90 нерж\оц</t>
-  </si>
-  <si>
-    <t>Колено 90 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Тройник 45 нерж\оц</t>
-  </si>
-  <si>
-    <t>Тройник 45 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Тройник 87 нерж\оц</t>
-  </si>
-  <si>
-    <t>Тройник 87 нерж\нерж</t>
-  </si>
-  <si>
-    <t>elements</t>
+    <t>Тройник 87* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Тройник 87* нерж\оц</t>
+  </si>
+  <si>
+    <t>Тройник 45* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Тройник 45* нерж\оц</t>
+  </si>
+  <si>
+    <t>Колено 90* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Колено 90* нерж\оц</t>
+  </si>
+  <si>
+    <t>Колено 45* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Колено 45* нерж\оц</t>
+  </si>
+  <si>
+    <t>Труба 0.5м нерж\нерж</t>
+  </si>
+  <si>
+    <t>Труба 0.5м нерж\оц</t>
+  </si>
+  <si>
+    <t>Труба 0.25м нерж\нерж</t>
+  </si>
+  <si>
+    <t>Труба 0.25м нерж\оц</t>
+  </si>
+  <si>
+    <t>Труба 0.5м</t>
+  </si>
+  <si>
+    <t>Труба 0.3м</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,9 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -762,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6">
         <v>100</v>
@@ -824,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="8">
         <v>495.88</v>
@@ -880,13 +882,13 @@
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8">
         <v>251.16000000000003</v>
@@ -939,13 +941,13 @@
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8">
         <v>187</v>
@@ -998,13 +1000,13 @@
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8">
         <v>449</v>
@@ -1057,13 +1059,13 @@
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8">
         <v>232</v>
@@ -1116,13 +1118,13 @@
     </row>
     <row r="7" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8">
         <v>539</v>
@@ -1175,13 +1177,13 @@
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="8">
         <v>655</v>
@@ -1234,13 +1236,13 @@
     </row>
     <row r="9" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8">
         <v>282</v>
@@ -1293,13 +1295,13 @@
     </row>
     <row r="10" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8">
         <v>359</v>
@@ -1352,13 +1354,13 @@
     </row>
     <row r="11" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8">
         <v>208</v>
@@ -1411,13 +1413,13 @@
     </row>
     <row r="12" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="8">
         <v>569</v>
@@ -1477,7 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1486,67 +1490,67 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
@@ -1554,10 +1558,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9">
         <v>917.69999999999993</v>
@@ -1605,7 +1609,7 @@
         <v>4185.7</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T2" s="9">
         <v>1085.8499999999999</v>
@@ -1616,13 +1620,13 @@
     </row>
     <row r="3" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9">
         <v>719.15</v>
@@ -1670,7 +1674,7 @@
         <v>3503.6</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T3" s="9">
         <v>808.44999999999993</v>
@@ -1681,13 +1685,13 @@
     </row>
     <row r="4" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9">
         <v>559.54999999999995</v>
@@ -1735,7 +1739,7 @@
         <v>2531.75</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T4" s="9">
         <v>647.9</v>
@@ -1746,13 +1750,13 @@
     </row>
     <row r="5" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9">
         <v>430.34999999999997</v>
@@ -1800,7 +1804,7 @@
         <v>2080.5</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T5" s="9">
         <v>474.04999999999995</v>
@@ -1811,13 +1815,13 @@
     </row>
     <row r="6" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9">
         <v>371</v>
@@ -1865,7 +1869,7 @@
         <v>1671</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T6" s="9">
         <v>422</v>
@@ -1876,13 +1880,13 @@
     </row>
     <row r="7" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <v>317</v>
@@ -1930,7 +1934,7 @@
         <v>1389</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T7" s="9">
         <v>336</v>
@@ -1941,13 +1945,13 @@
     </row>
     <row r="8" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9">
         <v>1044</v>
@@ -1995,7 +1999,7 @@
         <v>7036.4966141732284</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T8" s="9">
         <v>1209.5428346456692</v>
@@ -2006,13 +2010,13 @@
     </row>
     <row r="9" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9">
         <v>901</v>
@@ -2060,7 +2064,7 @@
         <v>5935.4966141732284</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T9" s="9">
         <v>1023.5428346456692</v>
@@ -2071,13 +2075,13 @@
     </row>
     <row r="10" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9">
         <v>1272</v>
@@ -2125,7 +2129,7 @@
         <v>9950.883622047244</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T10" s="9">
         <v>1493.0822047244094</v>
@@ -2136,13 +2140,13 @@
     </row>
     <row r="11" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9">
         <v>1102</v>
@@ -2190,7 +2194,7 @@
         <v>8471.883622047244</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T11" s="9">
         <v>1276.0822047244094</v>
@@ -2201,13 +2205,13 @@
     </row>
     <row r="12" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9">
         <v>992</v>
@@ -2255,7 +2259,7 @@
         <v>5156.4966141732284</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T12" s="9">
         <v>1054.8</v>
@@ -2266,13 +2270,13 @@
     </row>
     <row r="13" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="9">
         <v>851</v>
@@ -2320,7 +2324,7 @@
         <v>4271.4966141732284</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T13" s="9">
         <v>894.8</v>
@@ -2334,10 +2338,10 @@
         <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="9">
         <v>519</v>
@@ -2385,7 +2389,7 @@
         <v>2662</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T14" s="9">
         <v>575</v>
@@ -2396,13 +2400,13 @@
     </row>
     <row r="15" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="9">
         <v>444</v>
@@ -2450,7 +2454,7 @@
         <v>2267</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T15" s="9">
         <v>481</v>
@@ -2461,13 +2465,13 @@
     </row>
     <row r="16" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9">
         <v>829</v>
@@ -2515,7 +2519,7 @@
         <v>4908</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T16" s="9">
         <v>971</v>
@@ -2526,13 +2530,13 @@
     </row>
     <row r="17" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9">
         <v>686</v>
@@ -2580,7 +2584,7 @@
         <v>3927</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T17" s="9">
         <v>793</v>
@@ -2591,13 +2595,13 @@
     </row>
     <row r="18" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9">
         <v>361</v>
@@ -2645,7 +2649,7 @@
         <v>1418</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T18" s="9">
         <v>423</v>
@@ -2656,13 +2660,13 @@
     </row>
     <row r="19" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="9">
         <v>405</v>
@@ -2710,7 +2714,7 @@
         <v>2417</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T19" s="9">
         <v>468</v>
@@ -2721,13 +2725,13 @@
     </row>
     <row r="20" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="9">
         <v>387</v>
@@ -2775,7 +2779,7 @@
         <v>2230</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T20" s="9">
         <v>442</v>
@@ -2786,13 +2790,13 @@
     </row>
     <row r="21" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="9">
         <v>378</v>
@@ -2831,16 +2835,16 @@
         <v>1063</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T21" s="9">
         <v>399</v>
